--- a/data/trans_bre/P23_9_R-Edad-trans_bre.xlsx
+++ b/data/trans_bre/P23_9_R-Edad-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -525,6 +525,10 @@
     <col width="14" customWidth="1" min="8" max="8"/>
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,14 +546,18 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -571,27 +579,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -606,6 +634,10 @@
       <c r="H3" s="2" t="n"/>
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -620,42 +652,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-3,75</t>
+          <t>-3,46</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>0,9</t>
+          <t>-0,83</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>-0,74</t>
+          <t>-0,97</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>-7,94</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>-3,49</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-34,11%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>9,33%</t>
+          <t>-8,21</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-15,03%</t>
+          <t>-34,04%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-25,89%</t>
+          <t>-7,63%</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>-18,84%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>-67,26%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>-25,92%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-50,81%</t>
         </is>
       </c>
     </row>
@@ -668,42 +720,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-10,61; 3,28</t>
+          <t>-10,09; 2,95</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-5,76; 7,41</t>
+          <t>-9,6; 4,79</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-5,74; 3,96</t>
+          <t>-6,36; 4,03</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-14,02; 5,15</t>
+          <t>-16,39; -1,25</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-73,53; 52,03</t>
+          <t>-13,91; 5,61</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,8; 114,79</t>
+          <t>-19,27; 1,05</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-73,81; 234,82</t>
+          <t>-73,07; 55,36</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-68,19; 68,54</t>
+          <t>-59,67; 69,03</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>-72,54; 245,2</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>-89,49; 0,62</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-68,81; 77,83</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-81,94; 23,12</t>
         </is>
       </c>
     </row>
@@ -720,42 +792,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>3,75</t>
+          <t>3,83</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6,94</t>
+          <t>6,61</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>12,42</t>
+          <t>12,28</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>3,03</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>0,97</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>61,67%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>67,95%</t>
+          <t>-5,86</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>131,25%</t>
+          <t>61,33%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>9,08%</t>
+          <t>61,68%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>124,63%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>51,45%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>9,1%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-38,78%</t>
         </is>
       </c>
     </row>
@@ -768,42 +860,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-2,07; 9,38</t>
+          <t>-2,11; 9,81</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-1,62; 13,66</t>
+          <t>-2,89; 13,33</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>2,81; 19,54</t>
+          <t>1,48; 19,87</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 8,92</t>
+          <t>-3,29; 8,66</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-26,31; 266,24</t>
+          <t>-6,86; 8,89</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-18,97; 216,16</t>
+          <t>-14,16; 1,28</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 337,84</t>
+          <t>-25,18; 254,84</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-44,84; 127,38</t>
+          <t>-22,14; 196,29</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>-4,53; 313,9</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>-36,02; 281,17</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-46,76; 144,57</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-68,52; 18,23</t>
         </is>
       </c>
     </row>
@@ -820,42 +932,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>-6,19</t>
+          <t>-3,51</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>2,48</t>
+          <t>2,56</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>1,21</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>-9,26</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>2,17</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>-28,68%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>12,83%</t>
+          <t>-3,5</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>1,87%</t>
+          <t>-17,84%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>13,12%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>6,2%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>-50,71%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>13,81%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>-19,4%</t>
         </is>
       </c>
     </row>
@@ -868,42 +1000,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-17,29; 1,64</t>
+          <t>-11,99; 3,71</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-4,03; 9,01</t>
+          <t>-4,4; 9,24</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-8,86; 6,83</t>
+          <t>-6,89; 7,78</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-4,76; 9,24</t>
+          <t>-17,3; -3,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-57,79; 12,3</t>
+          <t>-4,95; 9,25</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-17,81; 57,16</t>
+          <t>-12,2; 5,09</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-34,45; 43,58</t>
+          <t>-47,1; 23,77</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-24,41; 73,47</t>
+          <t>-18,72; 58,71</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>-28,38; 48,56</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>-71,6; -23,53</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-26,16; 77,11</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-52,75; 40,28</t>
         </is>
       </c>
     </row>
@@ -920,42 +1072,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>1,32</t>
+          <t>0,73</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-3,95</t>
+          <t>-4,33</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,17</t>
+          <t>6,24</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-1,24</t>
+          <t>-0,05</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>8,3%</t>
+          <t>-1,23</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-15,36%</t>
+          <t>-0,39</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>34,21%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-5,95%</t>
+          <t>-16,66%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>34,53%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>-0,34%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-5,9%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>-2,02%</t>
         </is>
       </c>
     </row>
@@ -968,42 +1140,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-6,87; 7,16</t>
+          <t>-7,92; 6,99</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-10,96; 2,8</t>
+          <t>-11,66; 2,04</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-0,55; 12,78</t>
+          <t>0,31; 12,91</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-9,23; 6,1</t>
+          <t>-5,5; 5,82</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-33,84; 58,02</t>
+          <t>-9,23; 7,06</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-36,56; 13,34</t>
+          <t>-8,28; 6,88</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-3,45; 86,1</t>
+          <t>-36,3; 56,47</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-37,3; 37,64</t>
+          <t>-38,95; 8,72</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>-1,0; 87,08</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>-34,59; 60,65</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-35,98; 44,56</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-34,78; 46,21</t>
         </is>
       </c>
     </row>
@@ -1020,42 +1212,62 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>2,27</t>
+          <t>1,69</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>0,43</t>
+          <t>0,07</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>2,82</t>
+          <t>2,49</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
+          <t>5,89</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
           <t>-1,12</t>
         </is>
       </c>
-      <c r="G12" s="2" t="inlineStr">
-        <is>
-          <t>13,3%</t>
-        </is>
-      </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>2,13%</t>
+          <t>1,6</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>-5,38%</t>
+          <t>0,35%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>12,48%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>61,22%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>-5,37%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
         </is>
       </c>
     </row>
@@ -1068,42 +1280,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>-5,64; 9,78</t>
+          <t>-5,84; 8,62</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-7,43; 7,66</t>
+          <t>-8,5; 7,41</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>-4,93; 9,73</t>
+          <t>-4,75; 9,97</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-10,43; 7,84</t>
+          <t>-0,51; 12,57</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-26,92; 75,36</t>
+          <t>-9,38; 7,34</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-30,17; 46,14</t>
+          <t>-6,53; 9,61</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>-21,77; 61,58</t>
+          <t>-28,22; 64,75</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>-40,37; 48,81</t>
+          <t>-33,4; 42,73</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>-20,05; 61,88</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>-4,96; 181,81</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>-35,99; 49,8</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>-26,88; 55,75</t>
         </is>
       </c>
     </row>
@@ -1120,42 +1352,62 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>2,34</t>
+          <t>2,86</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>-8,35</t>
+          <t>-7,37</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>-1,93</t>
+          <t>-1,24</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
+          <t>12,89</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
           <t>-0,03</t>
         </is>
       </c>
-      <c r="G14" s="2" t="inlineStr">
-        <is>
-          <t>13,26%</t>
-        </is>
-      </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>-25,06%</t>
+          <t>8,59</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>-9,26%</t>
+          <t>16,07%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>-0,13%</t>
+          <t>-22,85%</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>-5,9%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>109,09%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>-0,12%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>44,49%</t>
         </is>
       </c>
     </row>
@@ -1168,42 +1420,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-8,43; 11,11</t>
+          <t>-9,11; 11,25</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-19,71; 2,06</t>
+          <t>-17,25; 2,63</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>-10,12; 6,21</t>
+          <t>-9,09; 6,45</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-11,13; 10,99</t>
+          <t>2,51; 22,22</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-40,06; 87,21</t>
+          <t>-11,16; 10,73</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-48,26; 9,12</t>
+          <t>-1,72; 17,93</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-39,57; 38,28</t>
+          <t>-38,1; 87,08</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>-36,25; 57,58</t>
+          <t>-44,76; 10,46</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>-35,76; 39,02</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>14,54; 292,87</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>-37,64; 55,15</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>-6,92; 126,8</t>
         </is>
       </c>
     </row>
@@ -1220,42 +1492,62 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,19</t>
+          <t>0,74</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,13</t>
+          <t>-0,17</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>3,38</t>
+          <t>3,55</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
+          <t>0,98</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
           <t>0,25</t>
         </is>
       </c>
-      <c r="G16" s="2" t="inlineStr">
-        <is>
-          <t>1,27%</t>
-        </is>
-      </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>0,64%</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>21,67%</t>
+          <t>5,01%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>1,41%</t>
+          <t>-0,86%</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>22,56%</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>8,12%</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>1,43%</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>-3,03%</t>
         </is>
       </c>
     </row>
@@ -1268,42 +1560,69 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-3,67; 3,33</t>
+          <t>-2,5; 4,11</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-3,34; 3,2</t>
+          <t>-3,4; 3,1</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>0,13; 6,28</t>
+          <t>0,33; 6,63</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-3,42; 4,16</t>
+          <t>-1,98; 4,15</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-20,47; 24,98</t>
+          <t>-3,4; 4,24</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>-15,37; 18,13</t>
+          <t>-4,38; 3,41</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>0,71; 44,87</t>
+          <t>-14,86; 31,5</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-17,17; 27,31</t>
+          <t>-15,45; 17,74</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>1,5; 47,36</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>-14,57; 39,45</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-17,45; 26,71</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>-21,49; 22,24</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
@@ -1312,13 +1631,13 @@
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
     <mergeCell ref="A16:A17"/>
-    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A14:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
